--- a/cbrunner/Parameters/Parameters_RESULTS.xlsx
+++ b/cbrunner/Parameters/Parameters_RESULTS.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22BB781-1715-4C05-A42A-C20768AEAA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="22035" windowHeight="13035"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SILV_BASE_CODE" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="SILV_TECHNIQUE_CODE" sheetId="2" r:id="rId2"/>
     <sheet name="SILV_METHOD_CODE" sheetId="3" r:id="rId3"/>
     <sheet name="FUNDING_SOURCE_CODE" sheetId="5" r:id="rId4"/>
@@ -1811,7 +1817,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1849,22 +1855,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1876,14 +1879,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1921,7 +1927,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1993,7 +1999,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2166,7 +2172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2458,7 +2464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2470,7 +2476,7 @@
     <col min="2" max="2" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -2478,7 +2484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -2486,7 +2492,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -2494,7 +2500,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -2502,7 +2508,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2510,7 +2516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
@@ -2518,7 +2524,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
@@ -2526,7 +2532,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
@@ -2534,7 +2540,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -2542,7 +2548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
@@ -2550,7 +2556,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>55</v>
       </c>
@@ -2558,7 +2564,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
@@ -2566,7 +2572,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>59</v>
       </c>
@@ -2574,7 +2580,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>61</v>
       </c>
@@ -2582,7 +2588,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>63</v>
       </c>
@@ -2590,7 +2596,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>65</v>
       </c>
@@ -2598,7 +2604,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -2606,7 +2612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>67</v>
       </c>
@@ -2614,7 +2620,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>69</v>
       </c>
@@ -2622,7 +2628,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>71</v>
       </c>
@@ -2630,7 +2636,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>73</v>
       </c>
@@ -2638,7 +2644,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>75</v>
       </c>
@@ -2646,7 +2652,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
@@ -2654,7 +2660,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>79</v>
       </c>
@@ -2662,7 +2668,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>81</v>
       </c>
@@ -2670,7 +2676,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>83</v>
       </c>
@@ -2678,7 +2684,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
@@ -2686,7 +2692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>85</v>
       </c>
@@ -2694,7 +2700,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>87</v>
       </c>
@@ -2702,7 +2708,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>89</v>
       </c>
@@ -2710,7 +2716,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>91</v>
       </c>
@@ -2718,7 +2724,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>93</v>
       </c>
@@ -2726,7 +2732,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>95</v>
       </c>
@@ -2734,7 +2740,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>97</v>
       </c>
@@ -2742,7 +2748,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>99</v>
       </c>
@@ -2750,7 +2756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
@@ -2758,7 +2764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>101</v>
       </c>
@@ -2766,7 +2772,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>28</v>
       </c>
@@ -2774,7 +2780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>103</v>
       </c>
@@ -2782,7 +2788,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>105</v>
       </c>
@@ -2790,7 +2796,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>107</v>
       </c>
@@ -2798,7 +2804,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>109</v>
       </c>
@@ -2806,7 +2812,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>111</v>
       </c>
@@ -2814,7 +2820,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>113</v>
       </c>
@@ -2822,7 +2828,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>115</v>
       </c>
@@ -2830,7 +2836,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>117</v>
       </c>
@@ -2838,7 +2844,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>119</v>
       </c>
@@ -2846,7 +2852,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>121</v>
       </c>
@@ -2854,7 +2860,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>123</v>
       </c>
@@ -2862,7 +2868,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>34</v>
       </c>
@@ -2870,7 +2876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>125</v>
       </c>
@@ -2878,7 +2884,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>36</v>
       </c>
@@ -2886,7 +2892,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>38</v>
       </c>
@@ -2894,7 +2900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>128</v>
       </c>
@@ -2902,7 +2908,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>130</v>
       </c>
@@ -2910,7 +2916,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>132</v>
       </c>
@@ -2918,7 +2924,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>134</v>
       </c>
@@ -2932,7 +2938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2944,7 +2950,7 @@
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -2952,7 +2958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>136</v>
       </c>
@@ -2960,7 +2966,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>138</v>
       </c>
@@ -2968,7 +2974,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>140</v>
       </c>
@@ -2976,7 +2982,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>142</v>
       </c>
@@ -2984,7 +2990,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>144</v>
       </c>
@@ -2992,7 +2998,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>146</v>
       </c>
@@ -3000,7 +3006,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>148</v>
       </c>
@@ -3008,7 +3014,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>150</v>
       </c>
@@ -3016,7 +3022,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>152</v>
       </c>
@@ -3024,7 +3030,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>154</v>
       </c>
@@ -3032,7 +3038,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>156</v>
       </c>
@@ -3040,7 +3046,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>158</v>
       </c>
@@ -3048,7 +3054,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>160</v>
       </c>
@@ -3056,7 +3062,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>162</v>
       </c>
@@ -3064,7 +3070,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>164</v>
       </c>
@@ -3072,7 +3078,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>166</v>
       </c>
@@ -3080,7 +3086,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>168</v>
       </c>
@@ -3088,7 +3094,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>170</v>
       </c>
@@ -3096,7 +3102,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>172</v>
       </c>
@@ -3104,7 +3110,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>174</v>
       </c>
@@ -3112,7 +3118,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>176</v>
       </c>
@@ -3120,7 +3126,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>178</v>
       </c>
@@ -3128,7 +3134,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>180</v>
       </c>
@@ -3136,7 +3142,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>182</v>
       </c>
@@ -3144,7 +3150,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>184</v>
       </c>
@@ -3152,7 +3158,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>186</v>
       </c>
@@ -3160,7 +3166,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>188</v>
       </c>
@@ -3168,7 +3174,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>190</v>
       </c>
@@ -3176,7 +3182,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>192</v>
       </c>
@@ -3184,7 +3190,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>194</v>
       </c>
@@ -3192,7 +3198,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>196</v>
       </c>
@@ -3200,7 +3206,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>198</v>
       </c>
@@ -3208,7 +3214,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>200</v>
       </c>
@@ -3216,7 +3222,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>202</v>
       </c>
@@ -3224,7 +3230,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>204</v>
       </c>
@@ -3232,7 +3238,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>206</v>
       </c>
@@ -3240,7 +3246,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>208</v>
       </c>
@@ -3248,7 +3254,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>210</v>
       </c>
@@ -3256,7 +3262,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>212</v>
       </c>
@@ -3264,7 +3270,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>214</v>
       </c>
@@ -3272,7 +3278,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>216</v>
       </c>
@@ -3280,7 +3286,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>218</v>
       </c>
@@ -3288,7 +3294,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>220</v>
       </c>
@@ -3296,7 +3302,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>222</v>
       </c>
@@ -3304,7 +3310,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>224</v>
       </c>
@@ -3312,7 +3318,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>226</v>
       </c>
@@ -3320,7 +3326,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>228</v>
       </c>
@@ -3328,7 +3334,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>230</v>
       </c>
@@ -3336,7 +3342,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>232</v>
       </c>
@@ -3344,7 +3350,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>234</v>
       </c>
@@ -3352,7 +3358,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>236</v>
       </c>
@@ -3360,7 +3366,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>238</v>
       </c>
@@ -3368,7 +3374,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>240</v>
       </c>
@@ -3376,7 +3382,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>242</v>
       </c>
@@ -3384,7 +3390,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>243</v>
       </c>
@@ -3392,7 +3398,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>245</v>
       </c>
@@ -3400,7 +3406,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="58" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>247</v>
       </c>
@@ -3408,7 +3414,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>248</v>
       </c>
@@ -3416,7 +3422,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>250</v>
       </c>
@@ -3424,7 +3430,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>252</v>
       </c>
@@ -3432,7 +3438,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>254</v>
       </c>
@@ -3440,7 +3446,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>256</v>
       </c>
@@ -3448,7 +3454,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="64" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>258</v>
       </c>
@@ -3456,7 +3462,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>260</v>
       </c>
@@ -3464,7 +3470,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>262</v>
       </c>
@@ -3472,7 +3478,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>264</v>
       </c>
@@ -3480,7 +3486,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>266</v>
       </c>
@@ -3488,7 +3494,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>267</v>
       </c>
@@ -3496,7 +3502,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>269</v>
       </c>
@@ -3504,7 +3510,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>271</v>
       </c>
@@ -3512,7 +3518,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="72" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>273</v>
       </c>
@@ -3520,7 +3526,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>275</v>
       </c>
@@ -3528,7 +3534,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>277</v>
       </c>
@@ -3536,7 +3542,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="75" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>279</v>
       </c>
@@ -3544,7 +3550,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>281</v>
       </c>
@@ -3552,7 +3558,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>283</v>
       </c>
@@ -3560,7 +3566,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>285</v>
       </c>
@@ -3568,7 +3574,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>287</v>
       </c>
@@ -3576,7 +3582,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>289</v>
       </c>
@@ -3584,7 +3590,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="81" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>291</v>
       </c>
@@ -3592,7 +3598,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>293</v>
       </c>
@@ -3600,7 +3606,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="83" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>295</v>
       </c>
@@ -3608,7 +3614,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>297</v>
       </c>
@@ -3616,7 +3622,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="85" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>299</v>
       </c>
@@ -3624,7 +3630,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="86" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>301</v>
       </c>
@@ -3632,7 +3638,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="87" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>303</v>
       </c>
@@ -3640,7 +3646,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>305</v>
       </c>
@@ -3648,7 +3654,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>307</v>
       </c>
@@ -3656,7 +3662,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="90" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>309</v>
       </c>
@@ -3664,7 +3670,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="91" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>311</v>
       </c>
@@ -3672,7 +3678,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>313</v>
       </c>
@@ -3680,7 +3686,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="93" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>315</v>
       </c>
@@ -3688,7 +3694,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>317</v>
       </c>
@@ -3696,7 +3702,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="95" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>319</v>
       </c>
@@ -3704,7 +3710,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="96" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>321</v>
       </c>
@@ -3712,7 +3718,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="97" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>323</v>
       </c>
@@ -3720,7 +3726,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="98" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>325</v>
       </c>
@@ -3728,7 +3734,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="99" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>327</v>
       </c>
@@ -3736,7 +3742,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="100" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>329</v>
       </c>
@@ -3744,7 +3750,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="101" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>331</v>
       </c>
@@ -3752,7 +3758,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="102" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>333</v>
       </c>
@@ -3760,7 +3766,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="103" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>335</v>
       </c>
@@ -3768,7 +3774,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="104" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>337</v>
       </c>
@@ -3776,7 +3782,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="105" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>339</v>
       </c>
@@ -3784,7 +3790,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="106" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>341</v>
       </c>
@@ -3792,7 +3798,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="107" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>343</v>
       </c>
@@ -3800,7 +3806,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="108" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>345</v>
       </c>
@@ -3808,7 +3814,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="109" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>347</v>
       </c>
@@ -3816,7 +3822,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="110" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>349</v>
       </c>
@@ -3824,7 +3830,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="111" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>351</v>
       </c>
@@ -3832,7 +3838,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="112" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>353</v>
       </c>
@@ -3840,7 +3846,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="113" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>355</v>
       </c>
@@ -3848,7 +3854,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="114" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>357</v>
       </c>
@@ -3856,7 +3862,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="115" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>359</v>
       </c>
@@ -3864,7 +3870,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="116" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>361</v>
       </c>
@@ -3872,7 +3878,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>363</v>
       </c>
@@ -3880,7 +3886,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="118" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>365</v>
       </c>
@@ -3888,7 +3894,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="119" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>367</v>
       </c>
@@ -3896,7 +3902,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="120" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>369</v>
       </c>
@@ -3904,7 +3910,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="121" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>371</v>
       </c>
@@ -3912,7 +3918,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="122" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>373</v>
       </c>
@@ -3920,7 +3926,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="123" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>375</v>
       </c>
@@ -3928,7 +3934,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="124" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>377</v>
       </c>
@@ -3936,7 +3942,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="125" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>379</v>
       </c>
@@ -3944,7 +3950,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="126" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>381</v>
       </c>
@@ -3952,7 +3958,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="127" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>383</v>
       </c>
@@ -3960,7 +3966,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="128" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>385</v>
       </c>
@@ -3968,7 +3974,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="129" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>387</v>
       </c>
@@ -3976,7 +3982,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="130" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>389</v>
       </c>
@@ -3984,7 +3990,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="131" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>391</v>
       </c>
@@ -3992,7 +3998,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>393</v>
       </c>
@@ -4000,7 +4006,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="133" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>395</v>
       </c>
@@ -4008,7 +4014,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="134" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>397</v>
       </c>
@@ -4016,7 +4022,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="135" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>399</v>
       </c>
@@ -4024,7 +4030,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="136" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>401</v>
       </c>
@@ -4032,7 +4038,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="137" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>403</v>
       </c>
@@ -4040,7 +4046,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="138" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>405</v>
       </c>
@@ -4048,7 +4054,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="139" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>406</v>
       </c>
@@ -4056,7 +4062,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="140" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>408</v>
       </c>
@@ -4064,7 +4070,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="141" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>410</v>
       </c>
@@ -4072,7 +4078,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="142" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>412</v>
       </c>
@@ -4080,7 +4086,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="143" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>414</v>
       </c>
@@ -4088,7 +4094,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="144" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>416</v>
       </c>
@@ -4096,7 +4102,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="145" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>418</v>
       </c>
@@ -4104,7 +4110,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="146" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>419</v>
       </c>
@@ -4112,7 +4118,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="147" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>421</v>
       </c>
@@ -4120,7 +4126,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="148" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>423</v>
       </c>
@@ -4128,7 +4134,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="149" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>425</v>
       </c>
@@ -4136,7 +4142,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="150" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>427</v>
       </c>
@@ -4144,7 +4150,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="151" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>429</v>
       </c>
@@ -4152,7 +4158,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="152" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>431</v>
       </c>
@@ -4160,7 +4166,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="153" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>433</v>
       </c>
@@ -4168,7 +4174,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="154" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>435</v>
       </c>
@@ -4176,7 +4182,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="155" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>437</v>
       </c>
@@ -4184,7 +4190,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="156" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>439</v>
       </c>
@@ -4192,7 +4198,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="157" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>441</v>
       </c>
@@ -4200,7 +4206,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="158" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>443</v>
       </c>
@@ -4208,7 +4214,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="159" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>445</v>
       </c>
@@ -4216,7 +4222,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="160" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>447</v>
       </c>
@@ -4224,7 +4230,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="161" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>449</v>
       </c>
@@ -4232,7 +4238,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="162" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>451</v>
       </c>
@@ -4240,7 +4246,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="163" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>452</v>
       </c>
@@ -4248,7 +4254,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="164" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>454</v>
       </c>
@@ -4256,7 +4262,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="165" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>456</v>
       </c>
@@ -4264,7 +4270,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="166" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>458</v>
       </c>
@@ -4272,7 +4278,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="167" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>460</v>
       </c>
@@ -4280,7 +4286,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="168" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>462</v>
       </c>
@@ -4288,7 +4294,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="169" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>464</v>
       </c>
@@ -4296,7 +4302,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="170" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>466</v>
       </c>
@@ -4304,7 +4310,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="171" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>468</v>
       </c>
@@ -4312,7 +4318,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="172" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>470</v>
       </c>
@@ -4320,7 +4326,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="173" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>472</v>
       </c>
@@ -4328,7 +4334,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="174" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>474</v>
       </c>
@@ -4336,7 +4342,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="175" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>476</v>
       </c>
@@ -4344,7 +4350,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="176" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>478</v>
       </c>
@@ -4352,7 +4358,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="177" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>480</v>
       </c>
@@ -4360,7 +4366,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="178" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>482</v>
       </c>
@@ -4368,7 +4374,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="179" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>484</v>
       </c>
@@ -4376,7 +4382,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="180" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>486</v>
       </c>
@@ -4391,7 +4397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4404,7 +4410,7 @@
     <col min="2" max="2" width="48.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -4412,7 +4418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>488</v>
       </c>
@@ -4420,7 +4426,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>490</v>
       </c>
@@ -4428,7 +4434,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>492</v>
       </c>
@@ -4436,7 +4442,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>494</v>
       </c>
@@ -4444,7 +4450,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>496</v>
       </c>
@@ -4452,7 +4458,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>498</v>
       </c>
@@ -4460,7 +4466,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>500</v>
       </c>
@@ -4468,7 +4474,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>502</v>
       </c>
@@ -4476,7 +4482,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>504</v>
       </c>
@@ -4484,7 +4490,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>506</v>
       </c>
@@ -4492,7 +4498,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>508</v>
       </c>
@@ -4500,7 +4506,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>510</v>
       </c>
@@ -4508,7 +4514,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>512</v>
       </c>
@@ -4516,7 +4522,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>514</v>
       </c>
@@ -4524,7 +4530,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>515</v>
       </c>
@@ -4532,7 +4538,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>517</v>
       </c>
@@ -4540,7 +4546,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>519</v>
       </c>
@@ -4548,7 +4554,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>521</v>
       </c>
@@ -4556,7 +4562,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>523</v>
       </c>
@@ -4564,7 +4570,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>525</v>
       </c>
@@ -4578,7 +4584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4588,7 +4594,7 @@
     <col min="2" max="2" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -4596,7 +4602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>527</v>
       </c>
@@ -4604,7 +4610,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>529</v>
       </c>
@@ -4612,7 +4618,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>531</v>
       </c>
@@ -4620,7 +4626,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>533</v>
       </c>
@@ -4628,7 +4634,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>535</v>
       </c>
@@ -4636,7 +4642,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>537</v>
       </c>
@@ -4644,7 +4650,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>539</v>
       </c>
@@ -4652,7 +4658,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>541</v>
       </c>
@@ -4660,7 +4666,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
@@ -4668,7 +4674,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>544</v>
       </c>
@@ -4676,7 +4682,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>546</v>
       </c>
@@ -4684,7 +4690,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>548</v>
       </c>
@@ -4692,7 +4698,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>550</v>
       </c>
@@ -4700,7 +4706,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>552</v>
       </c>
@@ -4708,7 +4714,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>554</v>
       </c>
@@ -4716,7 +4722,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>556</v>
       </c>
@@ -4724,7 +4730,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>558</v>
       </c>
@@ -4732,7 +4738,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>560</v>
       </c>
@@ -4740,7 +4746,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>562</v>
       </c>
@@ -4748,7 +4754,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>564</v>
       </c>
@@ -4756,7 +4762,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>566</v>
       </c>
@@ -4764,7 +4770,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>568</v>
       </c>
@@ -4772,7 +4778,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>570</v>
       </c>
@@ -4780,7 +4786,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>572</v>
       </c>
@@ -4788,7 +4794,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>574</v>
       </c>
@@ -4796,7 +4802,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>576</v>
       </c>
@@ -4804,7 +4810,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>578</v>
       </c>
@@ -4812,7 +4818,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>580</v>
       </c>
@@ -4820,7 +4826,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>582</v>
       </c>
@@ -4828,7 +4834,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>584</v>
       </c>
@@ -4836,7 +4842,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>586</v>
       </c>
@@ -4844,7 +4850,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>588</v>
       </c>
@@ -4852,7 +4858,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>590</v>
       </c>
@@ -4860,7 +4866,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>592</v>
       </c>
@@ -4868,7 +4874,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>594</v>
       </c>
